--- a/RCLA_Projects_Formatted.xlsx
+++ b/RCLA_Projects_Formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mrosen\rcla_project_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1353AA-9B09-4F15-83AD-11485177D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198D14BC-944A-40FA-B2CB-A7D58CFF5507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67400" yWindow="-3550" windowWidth="25090" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-66950" yWindow="-3100" windowWidth="25090" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCLA_Projects" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
     <t>Ashville  NC</t>
   </si>
   <si>
-    <t>Barranco Alto is a small community located about 2 miles east of Panajachel Guatemala.  The community had previously reached out our friends a Agua del Pueblo (AdP) for assistance creating a local water system.  Last February, Rotarians from RC of Mount Clemens Michigan visited Lake Atitlan as our first official Rotary Insider's Tour of the lake.  One outcome from this visit was funding for that effort.</t>
+    <t>Barranco Alto is a small community located about 2 miles east of Panajachel Guatemala.  The community had previously reached out to our club for assistance creating a local water system.  It seems the community was able to procure and install a storage tank but lacked funds to plumb the water to the individual homes.  We  admired their can-do spirit and thought it a worthy endeavor.  Last February, Rotarians from RC of Mount Clemens Michigan visited Lake Atitlan as our first official Rotary Insider's Tour of the lake.  One outcome from this visit was funding for that effort.</t>
   </si>
 </sst>
 </file>

--- a/RCLA_Projects_Formatted.xlsx
+++ b/RCLA_Projects_Formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mrosen\rcla_project_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198D14BC-944A-40FA-B2CB-A7D58CFF5507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918B816-84D4-4A86-836A-555DBFC867CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-66950" yWindow="-3100" windowWidth="25090" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-66500" yWindow="-2650" windowWidth="25090" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCLA_Projects" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1547,6 +1547,9 @@
       <c r="G12" t="s">
         <v>75</v>
       </c>
+      <c r="H12">
+        <v>9580</v>
+      </c>
       <c r="I12" t="s">
         <v>69</v>
       </c>

--- a/RCLA_Projects_Formatted.xlsx
+++ b/RCLA_Projects_Formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mrosen\rcla_project_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918B816-84D4-4A86-836A-555DBFC867CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6294B-A2E5-488D-AA47-247069EC5330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-66500" yWindow="-2650" windowWidth="25090" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-69660" yWindow="-6630" windowWidth="25090" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCLA_Projects" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
   <si>
     <t>Hospitalito in Santiago needs an X-ray machine!
 The objectives of this global grant are to purchase and install two greatly needed pieces of medical equipment into the Hospital in San Lucas Toliman, Guatemala. The first is a full body x-ray machine with CR digital developing or image acquisition technology. The second is a mini-C-arm portable fluoroscopy machine, primarily for use in the operating room but also for use in the ER and bedside.</t>
-  </si>
-  <si>
-    <t>Improving the health of the indigenous people in Patanatic and San Luis, Guatemala
-That is why the main objective of this grant is to improve access to health for the indigenous families of Patanatic and San Luis, Sololá, Guatemala. This project will provide 3 interventions, the first will be a health education program implemented by children and youth who will act as health promoters. The second intervention will be disease prevention by offering diagnostic studies for cervical and breast cancer, and the third intervention will be primary medical care for mothers and diabetic and hypertensive patients in the community.</t>
   </si>
   <si>
     <t>Amigos de Santa Cruz Economic Development Project
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>Barranco Alto is a small community located about 2 miles east of Panajachel Guatemala.  The community had previously reached out to our club for assistance creating a local water system.  It seems the community was able to procure and install a storage tank but lacked funds to plumb the water to the individual homes.  We  admired their can-do spirit and thought it a worthy endeavor.  Last February, Rotarians from RC of Mount Clemens Michigan visited Lake Atitlan as our first official Rotary Insider's Tour of the lake.  One outcome from this visit was funding for that effort.</t>
+  </si>
+  <si>
+    <t>Improving the health of the indigenous people in Patanatic and San Luis, Guatemala
+The main objective of this grant is to improve access to health for the indigenous families of Patanatic and San Luis, Sololá, Guatemala. This project will provide 3 interventions, the first will be a health education program implemented by children and youth who will act as health promoters. The second intervention will be disease prevention by offering diagnostic studies for cervical and breast cancer, and the third intervention will be primary medical care for mothers and diabetic and hypertensive patients in the community.</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1187,7 +1187,7 @@
         <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1201,7 +1201,7 @@
         <v>-91.148759999999996</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1213,13 +1213,13 @@
         <v>94479</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>5050</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2">
         <v>2018</v>
@@ -1236,16 +1236,16 @@
         <v>-91.179492999999994</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
         <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1259,19 +1259,19 @@
         <v>-91.132170000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1">
         <v>49886</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4">
         <v>5710</v>
@@ -1300,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>40600</v>
@@ -1332,25 +1332,25 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>161100</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6">
         <v>5960</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6">
         <v>2020</v>
@@ -1367,13 +1367,13 @@
         <v>-91.075400000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>50342</v>
@@ -1402,25 +1402,25 @@
         <v>-91.14264</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>55823</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8">
         <v>5960</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8">
         <v>2019</v>
@@ -1437,19 +1437,19 @@
         <v>-90.989829999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>95600</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9">
         <v>5960</v>
@@ -1472,7 +1472,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1501,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1513,7 +1513,7 @@
         <v>117839</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11">
         <v>7670</v>
@@ -1522,12 +1522,12 @@
         <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>14.7446660257835</v>
@@ -1539,19 +1539,22 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12">
         <v>9580</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>2992</v>
       </c>
       <c r="L12">
         <v>2023</v>
@@ -1571,7 +1574,7 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1582,7 +1585,7 @@
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>14.635115984513201</v>
@@ -1591,31 +1594,31 @@
         <v>-91.152687217249095</v>
       </c>
       <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14">
         <v>89577</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14">
         <v>5170</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/RCLA_Projects_Formatted.xlsx
+++ b/RCLA_Projects_Formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mrosen\rcla_project_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6294B-A2E5-488D-AA47-247069EC5330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A76D879-DA59-4198-856D-FFC5D0F2C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-69660" yWindow="-6630" windowWidth="25090" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCLA_Projects" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>position_lat</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/permalink.php?story_fbid=pfbid02tNeGRHDMdBffMFukX571gYoddb77PD9kZ9TadKkXEiJpS1hSzkN7X27S6T6KNaMMl&amp;id=100064244756826&amp;__cft__[0]=AZXqZ5WH0GRdeeI7s7vPTWfYaGzfZCUg5OxfnPn1esLvvnGwkt34FjlQZTX5eXEd4qJnZAW99AhzixUvtdHedujyR6pv1Ux3jm9L2VtAPTRMkFKHsr0Z9pUke2XOb1IkOBMmEtOXHkhQPOUYrSsJ3__8HUfeAIrCfqaJlrh_LN58BEv9StI3aM2lhj6lwmzfplY&amp;__tn__=%2CO%2CP-R</t>
-  </si>
-  <si>
-    <t>AdP_Tsanta</t>
   </si>
   <si>
     <t>https://docs.google.com/document/d/1mVlJjOC20YlY3WoSYbqmG4J_bosKzWGtBzPfRkzsGBw/edit</t>
@@ -267,9 +264,6 @@
     <t>Ferndale, WA</t>
   </si>
   <si>
-    <t>BarAlto0</t>
-  </si>
-  <si>
     <t>Ashville  NC</t>
   </si>
   <si>
@@ -278,6 +272,36 @@
   <si>
     <t>Improving the health of the indigenous people in Patanatic and San Luis, Guatemala
 The main objective of this grant is to improve access to health for the indigenous families of Patanatic and San Luis, Sololá, Guatemala. This project will provide 3 interventions, the first will be a health education program implemented by children and youth who will act as health promoters. The second intervention will be disease prevention by offering diagnostic studies for cervical and breast cancer, and the third intervention will be primary medical care for mothers and diabetic and hypertensive patients in the community.</t>
+  </si>
+  <si>
+    <t>AdP_TSanta</t>
+  </si>
+  <si>
+    <t>BarAlto</t>
+  </si>
+  <si>
+    <t>San Luis School Patanatic / Rostock Germany</t>
+  </si>
+  <si>
+    <t>Improvements made to a local public school in Patanatic.  Facilitated by Panajachel's sister city relationship with Rostock Germany and The Rotary Club of Guatemala Sur</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1grzo5RHqX1_f6xYNjmEzRkpUndDRDeEOs1uh2ncDykA/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>Rostock_Patanatic</t>
+  </si>
+  <si>
+    <t>Kinder für Kinder (Germany)</t>
+  </si>
+  <si>
+    <t>CdGuatemala, Sur</t>
+  </si>
+  <si>
+    <t>Birmingham MI</t>
   </si>
 </sst>
 </file>
@@ -770,9 +794,8 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1133,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1144,8 +1167,8 @@
     <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.06640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="9" max="9" width="23.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1328125" customWidth="1"/>
@@ -1154,7 +1177,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1166,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1175,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1184,10 +1207,10 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1201,25 +1224,25 @@
         <v>-91.148759999999996</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H2">
         <v>94479</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2">
         <v>5050</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2">
         <v>2018</v>
@@ -1236,16 +1259,16 @@
         <v>-91.179492999999994</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
         <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1259,19 +1282,19 @@
         <v>-91.132170000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4">
         <v>49886</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4">
         <v>5710</v>
@@ -1294,13 +1317,13 @@
         <v>-91.204400000000007</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H5">
         <v>40600</v>
@@ -1332,25 +1355,25 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H6">
         <v>161100</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6">
         <v>5960</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>2020</v>
@@ -1367,13 +1390,13 @@
         <v>-91.075400000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H7">
         <v>50342</v>
@@ -1402,25 +1425,25 @@
         <v>-91.14264</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>55823</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8">
         <v>5960</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <v>2019</v>
@@ -1437,19 +1460,19 @@
         <v>-90.989829999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>95600</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9">
         <v>5960</v>
@@ -1472,7 +1495,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1501,7 +1524,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1513,7 +1536,7 @@
         <v>117839</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J11">
         <v>7670</v>
@@ -1522,12 +1545,12 @@
         <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>14.7446660257835</v>
@@ -1535,23 +1558,23 @@
       <c r="C12">
         <v>-91.123643530897894</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H12">
         <v>9580</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12">
         <v>2992</v>
@@ -1562,7 +1585,7 @@
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>14.580902988842499</v>
@@ -1571,21 +1594,36 @@
         <v>-91.118942905277905</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>31</v>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>30000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13">
+        <v>6380</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>2024</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>14.635115984513201</v>
@@ -1594,31 +1632,69 @@
         <v>-91.152687217249095</v>
       </c>
       <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>50</v>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="H14">
         <v>89577</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14">
         <v>5170</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>14.765494074359999</v>
+      </c>
+      <c r="C15">
+        <v>-91.126203096043199</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15">
+        <v>3000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15">
+        <v>5240</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/RCLA_Projects_Formatted.xlsx
+++ b/RCLA_Projects_Formatted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -83,10 +83,13 @@
     <t xml:space="preserve">GG2352598</t>
   </si>
   <si>
-    <t xml:space="preserve">Patantic &amp; Sanika-ya</t>
+    <t xml:space="preserve">Healthcare in Patantic &amp; Sanika-ya</t>
   </si>
   <si>
     <t xml:space="preserve">approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duncan</t>
   </si>
   <si>
     <t xml:space="preserve">Improving the health of the indigenous people in Patanatic and San Luis, Guatemala
@@ -112,7 +115,7 @@
 Childhood education and basic business skills have been all but unknown in this indigenous community. The Rotary Foundation’s Global Grant is now contributing to educating a generation for the first time. Both early education and adult vocational training – particularly for women – are providing individuals with knowledge and skills to continue their education, gain employment and sustain healthier homes and families. This grant is specifically working to prepare 50 indigenous women to establish, operate, build and ideally, to expand textile and culinary enterprises.</t>
   </si>
   <si>
-    <t xml:space="preserve">Walkerton, Ontario, Canada</t>
+    <t xml:space="preserve">Wairton, Ontario Canada</t>
   </si>
   <si>
     <t xml:space="preserve">GG2091778</t>
@@ -161,19 +164,22 @@
     <t xml:space="preserve">RC Fort Collins, CO</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">GG1873788</t>
   </si>
   <si>
     <t xml:space="preserve">Stoves in San Lucas</t>
   </si>
   <si>
-    <t xml:space="preserve">Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Air pollution is a major global environmental health problem and contributes to over 7 million deaths annually. Poor indoor air quality also significantly impacts morbidity in mothers and childhood illnesses in Central American countries like Guatemala. We seek to install properly vented energy efficient stoves to replace the open-pit indoor cooking stoves used by indigenous Guatemalan families around Lake Aititlan. This solution offers improved indoor air quality for mothers and their children by reducing smoke inhalation effects, burn hazards, and less wood consumption/use. We anticipate 160+ family members in the communities of San Lucas Toliman, Guatemala will benefit in addition to local contractors for supporting the building resources and installation/maintenance needs of the stove systems.</t>
   </si>
   <si>
     <t xml:space="preserve">Rochester, MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-2024</t>
   </si>
   <si>
     <t xml:space="preserve">GG1870757</t>
@@ -291,6 +297,18 @@
   </si>
   <si>
     <t xml:space="preserve">2023-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GG2459764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amigos de Santa Cruz La Laguna After School tutoring Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The objective of this project is the develop an after-school tutoring program and establish a children's library in Santa Cruz, to reinforce the formal education of 90 students from preschool to 6th grade.  Specifically, there are 4 main objectives. 1.  Development of the Tutoring Program 2.  Teacher Training 3.  Opening a Children's Community Library 4.  Providing Solar Power to support the needs of both the teachers (teacher training) and students  The Main Beneficiaries: 6 Teachers and 1 Social Worker will receive additional training 90 children from pre-school to grade 6 who will gain the support required to allow them to achieve academic success in high school  Additional Beneficiaries 90 Mothers who will attend educational activities and workshops 270 siblings who will have access to the library books and school materials that are brought home</t>
   </si>
 </sst>
 </file>
@@ -377,16 +395,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -644,511 +666,555 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>14.63707</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>-91.14876</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>94479</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>5050</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>14.7652</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>-91.13217</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>49886</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="n">
         <v>5710</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <v>2023</v>
       </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>14.74219</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-91.2044</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>40600</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>6330</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="M4" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>14.7708</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-91.26555</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>161100</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>5960</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>14.72823</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>-91.0754</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>50342</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>5440</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>14.63551</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-91.14264</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>55823</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>5960</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>14.7544</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-90.98983</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>95600</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>5960</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>14.639426</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-91.218238</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>14.62098</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-91.23814</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>117839</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>7670</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>14.7446660257835</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-91.1236435308979</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>9580</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>2992</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>14.6351159845132</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-91.1526872172491</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>89577</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>5170</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>14.76549407436</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-91.1262030960432</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>5240</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>14.74219</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>-91.2044</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>40600</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>39980</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1" t="n">
         <v>6330</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>14.7708</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>-91.26555</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>161100</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>5960</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>14.72823</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>-91.0754</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>50342</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>5440</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>14.63551</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>-91.14264</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>55823</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>5960</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>14.7544</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>-90.98983</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>95600</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>5960</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>14.639426</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>-91.218238</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>14.62098</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>-91.23814</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>117839</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>7670</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>14.7446660257835</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>-91.1236435308979</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>9580</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>2992</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>14.6351159845132</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>-91.1526872172491</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>89577</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>5170</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>14.76549407436</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>-91.1262030960432</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>80</v>
+      <c r="L14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>2024</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/RCLA_Projects_Formatted.xlsx
+++ b/RCLA_Projects_Formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\msr\rcla_project_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C172B909-98EF-4C40-87A4-D35DA64BAAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18EE66C-C15B-4A67-955F-A585B51F7FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCLA_Projects" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -323,6 +323,26 @@
   </si>
   <si>
     <t>Amigos de Santa Cruz 3 / Economic Dev</t>
+  </si>
+  <si>
+    <t>Hospitalito Atitlan - Mothers and Infants</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>This project seeks to improve maternal and neonatal health outcomes for Tz'utujil Maya women in Santiago
+ Atitlán, Guatemala, by enhancing local healthcare infrastructure and expanding community-based prenatal
+ support. oject purchases neo-natal equipment for HA and the rural clinics it operates.  It provides funding for 16 Tsutujil-speaking "Promotadoras".</t>
+  </si>
+  <si>
+    <t>Truckee, CA</t>
+  </si>
+  <si>
+    <t>Hospitalito Atitlan</t>
+  </si>
+  <si>
+    <t>GG2570080</t>
   </si>
 </sst>
 </file>
@@ -638,25 +658,26 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" customWidth="1"/>
+    <col min="5" max="5" width="59.1796875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" customWidth="1"/>
+    <col min="10" max="10" width="23.7265625" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -732,7 +753,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -770,7 +791,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -808,7 +829,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -849,7 +870,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -887,7 +908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -925,7 +946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -957,7 +978,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -989,7 +1010,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1030,7 +1051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1068,7 +1089,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1106,7 +1127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1147,7 +1168,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1185,7 +1206,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -1223,8 +1244,46 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <v>14.650023791634</v>
+      </c>
+      <c r="C16">
+        <v>-91.2247603881152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16">
+        <v>136000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16">
+        <v>5190</v>
+      </c>
+      <c r="L16" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" display="https://www.facebook.com/permalink.php?story_fbid=pfbid02tNeGRHDMdBffMFukX571gYoddb77PD9kZ9TadKkXEiJpS1hSzkN7X27S6T6KNaMMl&amp;id=100064244756826&amp;__cft__[0]=AZXqZ5WH0GRdeeI7s7vPTWfYaGzfZCUg5OxfnPn1esLvvnGwkt34FjlQZTX5eXEd4qJnZAW99AhzixUvtdHedujyR6pv1Ux3jm9L2VtAPTRMkFKHsr0Z9pUke2XOb1IkOBMmEtOXHkhQPOUYrSsJ3__8HUfeAIrCfqaJlrh_LN58BEv9StI3aM2lhj6lwmzfplY&amp;__tn__=%2CO%2CP-R" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/RCLA_Projects_Formatted.xlsx
+++ b/RCLA_Projects_Formatted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\msr\rcla_project_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18EE66C-C15B-4A67-955F-A585B51F7FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6BDD1FF-B124-4661-ABE3-F7EEB984A2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -343,6 +343,51 @@
   </si>
   <si>
     <t>GG2570080</t>
+  </si>
+  <si>
+    <t>GG2574529</t>
+  </si>
+  <si>
+    <t>Reforesting Santiago</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>This project restores ecosystems, provides families with sustainable source of firewood, imporoves access to clean water and strengthens community resilience.</t>
+  </si>
+  <si>
+    <t>Rotary E-Club San Diego Global</t>
+  </si>
+  <si>
+    <t>WKG</t>
+  </si>
+  <si>
+    <t>ADP_VistaHermosa</t>
+  </si>
+  <si>
+    <t>ADP_Panimaquip</t>
+  </si>
+  <si>
+    <t>Water and Sanitation for Panimaquip, San Lucas Toliman</t>
+  </si>
+  <si>
+    <t>Sanitation for Vista Hermosa, Santa Lucia Utatlan</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1piFpvjaRl6BletKqpdrz2wlrc7pAYXgqHn6leAGrNto/edit?tab=t.0</t>
+  </si>
+  <si>
+    <t>This project povides sanitation services for 30 familes.  This is a follow-on project to an earlier grant that rehabiliated a potable water system.</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1DhmMi5CsALaOjiPloV8raZ8VPry1vaK8zJoh0PWGvdo/edit?tab=t.0</t>
+  </si>
+  <si>
+    <t>This project rehabiltates a potable water system.</t>
+  </si>
+  <si>
+    <t>Bruce</t>
   </si>
 </sst>
 </file>
@@ -477,6 +522,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF9BC86D-7ABE-40FD-82C2-07D851E6AD12}" name="Table1" displayName="Table1" ref="A1:M19" totalsRowShown="0">
+  <autoFilter ref="A1:M19" xr:uid="{AF9BC86D-7ABE-40FD-82C2-07D851E6AD12}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{968E55D8-D786-4B51-912C-1987D80112F4}" name="id"/>
+    <tableColumn id="2" xr3:uid="{8B850DEB-CA89-491D-B41E-53DEB8A95556}" name="position_lat"/>
+    <tableColumn id="3" xr3:uid="{37CCEF96-76CA-4794-A355-391672288D98}" name="position_lng"/>
+    <tableColumn id="4" xr3:uid="{4EB3EB66-FA8D-40BA-9ADF-37979D4C550A}" name="url"/>
+    <tableColumn id="5" xr3:uid="{76F97B48-C72D-4B56-94CD-5FE9425CD805}" name="title"/>
+    <tableColumn id="6" xr3:uid="{81B1D5C7-B572-45FF-BB60-6F4EE0820CA7}" name="status"/>
+    <tableColumn id="7" xr3:uid="{2236368A-6625-4649-8B21-D00A31D0117A}" name="shepard"/>
+    <tableColumn id="8" xr3:uid="{E5A0B68B-E6FB-46C2-82F6-0362F4EEF036}" name="description"/>
+    <tableColumn id="9" xr3:uid="{E744ADBA-83A3-49C0-BF6C-678034A6ACBD}" name="grantAmount"/>
+    <tableColumn id="10" xr3:uid="{A1EB0F2C-8CCD-4336-A31B-3F46432D7085}" name="internationalClub_name"/>
+    <tableColumn id="11" xr3:uid="{8FFD48CF-3AE8-49F2-AF28-F6278B055668}" name="internationalClub_district"/>
+    <tableColumn id="12" xr3:uid="{037FF40C-65F6-45A1-9A54-90B273B5BCBF}" name="partner"/>
+    <tableColumn id="13" xr3:uid="{7CADDF70-1EC9-4474-813D-5BC536A83823}" name="period"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,17 +722,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:M1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="59.1796875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -673,7 +740,7 @@
     <col min="8" max="8" width="30.6328125" customWidth="1"/>
     <col min="9" max="9" width="24.453125" customWidth="1"/>
     <col min="10" max="10" width="23.7265625" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" customWidth="1"/>
     <col min="12" max="12" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -846,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1282,13 +1349,124 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>14.600127799999999</v>
+      </c>
+      <c r="C17">
+        <v>-91.226982599999999</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17">
+        <v>38000</v>
+      </c>
+      <c r="J17" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>5340</v>
+      </c>
+      <c r="L17" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18">
+        <v>14.777010000000001</v>
+      </c>
+      <c r="C18">
+        <v>-91.267499999999998</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18">
+        <v>50000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>14.600020000000001</v>
+      </c>
+      <c r="C19">
+        <v>-91.147509999999997</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19">
+        <v>50000</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" display="https://www.facebook.com/permalink.php?story_fbid=pfbid02tNeGRHDMdBffMFukX571gYoddb77PD9kZ9TadKkXEiJpS1hSzkN7X27S6T6KNaMMl&amp;id=100064244756826&amp;__cft__[0]=AZXqZ5WH0GRdeeI7s7vPTWfYaGzfZCUg5OxfnPn1esLvvnGwkt34FjlQZTX5eXEd4qJnZAW99AhzixUvtdHedujyR6pv1Ux3jm9L2VtAPTRMkFKHsr0Z9pUke2XOb1IkOBMmEtOXHkhQPOUYrSsJ3__8HUfeAIrCfqaJlrh_LN58BEv9StI3aM2lhj6lwmzfplY&amp;__tn__=%2CO%2CP-R" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/RCLA_Projects_Formatted.xlsx
+++ b/RCLA_Projects_Formatted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\msr\rcla_project_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6BDD1FF-B124-4661-ABE3-F7EEB984A2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34978E-6FE1-46AD-B952-7C0882E1A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>Bruce</t>
+  </si>
+  <si>
+    <t>https://rotaryatitlan.org/hospitalito-grant-2025/</t>
+  </si>
+  <si>
+    <t>https://rotaryatitlan.org/visiting-our-friends-amigos-de-santa-cruz/</t>
   </si>
 </sst>
 </file>
@@ -724,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,11 +874,14 @@
       <c r="C4">
         <v>-91.2042</v>
       </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
@@ -1245,6 +1254,9 @@
       <c r="C14">
         <v>-91.204300000000003</v>
       </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
@@ -1283,6 +1295,9 @@
       <c r="C15">
         <v>-91.204400000000007</v>
       </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
       <c r="E15" t="s">
         <v>89</v>
       </c>
@@ -1321,6 +1336,9 @@
       <c r="C16">
         <v>-91.2247603881152</v>
       </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
       <c r="E16" t="s">
         <v>90</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>91</v>

--- a/RCLA_Projects_Formatted.xlsx
+++ b/RCLA_Projects_Formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\msr\rcla_project_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34978E-6FE1-46AD-B952-7C0882E1A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CD810E-5F53-414F-A50F-9C41CAEC75C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="230" yWindow="2660" windowWidth="25370" windowHeight="7980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCLA_Projects" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -130,11 +130,6 @@
   </si>
   <si>
     <t xml:space="preserve">Joe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The two villages we will be working in are Chuitzam, Santa Lucía Utatlan (population 682) and Chuti Estancia,
-San Andreas Semetabaj (population 1520). Both of these villages have a sever potable water shortage and they
-have to walk a long distance to carry water at this time. </t>
   </si>
   <si>
     <t>Northfield, MN</t>
@@ -363,24 +358,15 @@
     <t>WKG</t>
   </si>
   <si>
-    <t>ADP_VistaHermosa</t>
-  </si>
-  <si>
     <t>ADP_Panimaquip</t>
   </si>
   <si>
     <t>Water and Sanitation for Panimaquip, San Lucas Toliman</t>
   </si>
   <si>
-    <t>Sanitation for Vista Hermosa, Santa Lucia Utatlan</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1piFpvjaRl6BletKqpdrz2wlrc7pAYXgqHn6leAGrNto/edit?tab=t.0</t>
   </si>
   <si>
-    <t>This project povides sanitation services for 30 familes.  This is a follow-on project to an earlier grant that rehabiliated a potable water system.</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1DhmMi5CsALaOjiPloV8raZ8VPry1vaK8zJoh0PWGvdo/edit?tab=t.0</t>
   </si>
   <si>
@@ -394,13 +380,128 @@
   </si>
   <si>
     <t>https://rotaryatitlan.org/visiting-our-friends-amigos-de-santa-cruz/</t>
+  </si>
+  <si>
+    <t>GG2684872</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>WKG, Water4Life</t>
+  </si>
+  <si>
+    <t>This project will provide clean drinking water through household filters and sanitation systems while restoring degraded hillsides through the planting of thousands of native trees. The project also includes environmental education to promote long-term stewardship of water and natural resources. Together, these efforts aim to improve public health, reduce water contamination, and protect the watershed for future generations.</t>
+  </si>
+  <si>
+    <t>GG2570516</t>
+  </si>
+  <si>
+    <t>Water, Sanitation, Hygiene for Vista Hermosa, Phase I</t>
+  </si>
+  <si>
+    <t>Clint</t>
+  </si>
+  <si>
+    <t>Annapolis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The project will deliver a new well, pump, and household water distribution system to provide reliable potable water to families and a school in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Vista Hermosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> near </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Santa Lucía Utatlán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Guatemala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>GG2684482</t>
+  </si>
+  <si>
+    <t>Agroecological Vegetable Production in Santa Cruz La Laguna</t>
+  </si>
+  <si>
+    <t>Mildmay, Ontario Canada</t>
+  </si>
+  <si>
+    <t>AdSC</t>
+  </si>
+  <si>
+    <t>The project promotes sustainable economic development through agroecological vegetable production and commercialization in Santa Cruz La Laguna, Guatemala, focusing on highly vulnerable upper communities such as Chuitzanchaj.  It provides training in business management, collective organization, productivity, post-harvest processing, and the creation of a local market to improve incomes and nutrition.  The project directly benefits 15 indigenous farming families (prioritizing women) and indirectly supports about 850 community members</t>
+  </si>
+  <si>
+    <t>Protecting the Watershed of Lake Atitlan, Santa Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The two villages we will be working in are Chuitzam, Santa Lucía Utatlan (population 682) and Chuti Estancia,
+San Andreas Semetabaj (population 1520). Both of these villages have a severe potable water shortage and they
+have to walk a long distance to carry water at this time. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +513,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -531,8 +640,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF9BC86D-7ABE-40FD-82C2-07D851E6AD12}" name="Table1" displayName="Table1" ref="A1:M19" totalsRowShown="0">
-  <autoFilter ref="A1:M19" xr:uid="{AF9BC86D-7ABE-40FD-82C2-07D851E6AD12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF9BC86D-7ABE-40FD-82C2-07D851E6AD12}" name="Table1" displayName="Table1" ref="A1:M23" totalsRowShown="0">
+  <autoFilter ref="A1:M23" xr:uid="{AF9BC86D-7ABE-40FD-82C2-07D851E6AD12}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{968E55D8-D786-4B51-912C-1987D80112F4}" name="id"/>
     <tableColumn id="2" xr3:uid="{8B850DEB-CA89-491D-B41E-53DEB8A95556}" name="position_lat"/>
@@ -730,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -875,10 +984,10 @@
         <v>-91.2042</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -928,19 +1037,19 @@
         <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I5">
         <v>161100</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>5960</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5">
         <v>2020</v>
@@ -948,7 +1057,7 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>14.72823</v>
@@ -957,22 +1066,22 @@
         <v>-91.075400000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I6" s="1">
         <v>50342</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="1">
         <v>5440</v>
@@ -981,12 +1090,12 @@
         <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>14.63551</v>
@@ -995,7 +1104,7 @@
         <v>-91.14264</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1004,13 +1113,13 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>55823</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>5960</v>
@@ -1019,12 +1128,12 @@
         <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>14.7544</v>
@@ -1033,19 +1142,19 @@
         <v>-90.989829999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8">
         <v>95600</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>5960</v>
@@ -1056,7 +1165,7 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>14.639426</v>
@@ -1065,19 +1174,19 @@
         <v>-91.218237999999999</v>
       </c>
       <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
       </c>
       <c r="L9" t="s">
         <v>25</v>
@@ -1088,7 +1197,7 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>14.620979999999999</v>
@@ -1097,10 +1206,10 @@
         <v>-91.238140000000001</v>
       </c>
       <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1109,13 +1218,13 @@
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10">
         <v>117839</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10">
         <v>7670</v>
@@ -1124,12 +1233,12 @@
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>14.7446660257835</v>
@@ -1138,25 +1247,25 @@
         <v>-91.123643530897894</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
         <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
       </c>
       <c r="I11">
         <v>9580</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11">
         <v>2992</v>
@@ -1167,7 +1276,7 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12">
         <v>14.635115984513201</v>
@@ -1176,36 +1285,36 @@
         <v>-91.152687217249095</v>
       </c>
       <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
         <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <v>89577</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K12">
         <v>5170</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>14.765494074359999</v>
@@ -1214,10 +1323,10 @@
         <v>-91.126203096043199</v>
       </c>
       <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
         <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1226,27 +1335,27 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13">
         <v>3000</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>5240</v>
       </c>
       <c r="L13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" t="s">
         <v>80</v>
-      </c>
-      <c r="M13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>14.742190000000001</v>
@@ -1255,10 +1364,10 @@
         <v>-91.204300000000003</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -1267,7 +1376,7 @@
         <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14">
         <v>39980</v>
@@ -1279,7 +1388,7 @@
         <v>6330</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="M14">
         <v>2024</v>
@@ -1287,7 +1396,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>14.742190000000001</v>
@@ -1296,10 +1405,10 @@
         <v>-91.204400000000007</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -1308,19 +1417,19 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <v>55000</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15">
         <v>6330</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="M15">
         <v>2024</v>
@@ -1328,7 +1437,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>14.650023791634</v>
@@ -1337,31 +1446,31 @@
         <v>-91.2247603881152</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
         <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>92</v>
       </c>
       <c r="I16">
         <v>136000</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16">
         <v>5190</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M16">
         <v>2025</v>
@@ -1369,7 +1478,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>14.600127799999999</v>
@@ -1378,28 +1487,28 @@
         <v>-91.226982599999999</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I17">
         <v>38000</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17">
         <v>5340</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M17">
         <v>2025</v>
@@ -1407,7 +1516,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B18">
         <v>14.777010000000001</v>
@@ -1416,25 +1525,31 @@
         <v>-91.267499999999998</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I18">
-        <v>50000</v>
+        <v>34140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18">
+        <v>7620</v>
       </c>
       <c r="L18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M18">
         <v>2025</v>
@@ -1442,7 +1557,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>14.600020000000001</v>
@@ -1451,27 +1566,103 @@
         <v>-91.147509999999997</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I19">
         <v>50000</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20">
+        <v>14.7687463163484</v>
+      </c>
+      <c r="C20">
+        <v>-91.266137294845507</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20">
+        <v>38800</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20">
+        <v>6330</v>
+      </c>
+      <c r="L20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21">
+        <v>14.739000000000001</v>
+      </c>
+      <c r="C21">
+        <v>-91.213999999999999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21">
+        <v>45000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21">
+        <v>6330</v>
+      </c>
+      <c r="L21" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21">
         <v>2025</v>
       </c>
     </row>
